--- a/biology/Botanique/Liste_de_jardins_botaniques_au_Royaume-Uni/Liste_de_jardins_botaniques_au_Royaume-Uni.xlsx
+++ b/biology/Botanique/Liste_de_jardins_botaniques_au_Royaume-Uni/Liste_de_jardins_botaniques_au_Royaume-Uni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article recense les jardins botaniques, arboretums et coniferetums situés au Royaume-Uni
 </t>
@@ -511,7 +523,9 @@
           <t>Angleterre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Avon
 Jardin botanique de l'Université de Bristol (Bristol University Botanic Gardens)
@@ -609,7 +623,9 @@
           <t>Écosse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université d'Aberdeen (The Cruickshank Botanic Garden)
 Jardins de Crarae à Inveraray, (Crarae Gardens)
@@ -647,7 +663,9 @@
           <t>Pays de Galles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université du Pays de Galles, Aberystwyth (University of Wales Aberystwyth Botany Gardens)
 Jardin botanique national du Pays de Galles, Llanarthney (National Botanic Garden of Wales)
@@ -679,7 +697,9 @@
           <t>Irlande du Nord</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jardins botaniques de Belfast, (Belfast Botanic Gardens)</t>
         </is>
